--- a/Documentacion/Documentación Proyecto/ListaRiesgos.xlsx
+++ b/Documentacion/Documentación Proyecto/ListaRiesgos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Github\ProyectoFinal\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Github\ProyectoFinal\Documentacion\Documentación Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Código</t>
   </si>
@@ -86,9 +86,6 @@
     <t>R-1</t>
   </si>
   <si>
-    <t>Produco</t>
-  </si>
-  <si>
     <t>Bajo</t>
   </si>
   <si>
@@ -110,15 +107,9 @@
     <t>Inexperiencia en la gestión del proyecto</t>
   </si>
   <si>
-    <t>Se realizarán los entregables con control continuo del tutor asiganado</t>
-  </si>
-  <si>
     <t>Puede ser que sobre o falte tiempo, apoyarnos en el tutor como contingencia</t>
   </si>
   <si>
-    <t>Realizar mas respaldos, poner fechas de respaldo aparte de github</t>
-  </si>
-  <si>
     <t>Enfermedad o incapacidad de trabajar por parte de los integrantes del equipo de desarrollo</t>
   </si>
   <si>
@@ -128,9 +119,6 @@
     <t>Problema con los repositorio de datos (GITHUB)</t>
   </si>
   <si>
-    <t>Estamos utilizando las buenas practicas de scram, los requerimientos pueden cambiar.</t>
-  </si>
-  <si>
     <t>Omisiones o cambios en los requerimientos del sistema</t>
   </si>
   <si>
@@ -141,6 +129,15 @@
   </si>
   <si>
     <t>Descripción</t>
+  </si>
+  <si>
+    <t>Estamos utilizando las buenas practicas de Scrum, los requerimientos pueden cambiar.</t>
+  </si>
+  <si>
+    <t>Se realizarán los entregables con control continuo del tutor asignado</t>
+  </si>
+  <si>
+    <t>Realizar mas respaldos, poner fechas de respaldo aparte de tituba</t>
   </si>
 </sst>
 </file>
@@ -509,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -559,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -567,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -576,10 +573,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -587,19 +584,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -607,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -619,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -627,19 +624,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -664,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
@@ -676,15 +673,15 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -696,12 +693,12 @@
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/Documentacion/Documentación Proyecto/ListaRiesgos.xlsx
+++ b/Documentacion/Documentación Proyecto/ListaRiesgos.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Github\ProyectoFinal\Documentacion\Documentación Proyecto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="6792"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,8 +139,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -217,13 +220,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -507,205 +521,208 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="E1" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="91.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="113.88671875" customWidth="1"/>
     <col min="7" max="7" width="62.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>